--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77094.82417221142</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77094.82417221142</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189432500.323028</v>
+        <v>44708393.86634956</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13236.88029884442</v>
+        <v>1142063.699657664</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24878.81478577273</v>
+        <v>2012323.289806487</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36511.79882660201</v>
+        <v>2882582.87995531</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48407.55757233644</v>
+        <v>3751970.224777154</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60303.31265967685</v>
+        <v>4621357.569598998</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72199.07140541128</v>
+        <v>5490744.91442084</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84094.83015114571</v>
+        <v>6360132.259242679</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95990.58889688014</v>
+        <v>7229519.604064518</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107886.3179408297</v>
+        <v>8098906.948886355</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119782.0766865641</v>
+        <v>8968294.293708192</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131677.8317739046</v>
+        <v>9837681.638530031</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143573.590519639</v>
+        <v>10707068.98335188</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155469.3492653735</v>
+        <v>11576456.32817373</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167365.1080111079</v>
+        <v>12445843.67299558</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>179260.8667568425</v>
+        <v>13315231.01781743</v>
       </c>
     </row>
   </sheetData>
